--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Npb-Npbwr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Npb-Npbwr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
   <si>
     <t>Npb</t>
@@ -443,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,10 +513,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,10 +534,10 @@
         <v>0.943725</v>
       </c>
       <c r="I2">
-        <v>0.8554766003388458</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.7978244494548442</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,10 +552,10 @@
         <v>0.103559</v>
       </c>
       <c r="O2">
-        <v>0.9980981080672988</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.9971498724182755</v>
+        <v>1</v>
       </c>
       <c r="Q2">
         <v>0.02443280431875</v>
@@ -567,196 +564,10 @@
         <v>0.097731217275</v>
       </c>
       <c r="S2">
-        <v>0.8538495762940467</v>
+        <v>1</v>
       </c>
       <c r="T2">
-        <v>0.7955505479860787</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0.5</v>
-      </c>
-      <c r="G3">
-        <v>0.4718625</v>
-      </c>
-      <c r="H3">
-        <v>0.943725</v>
-      </c>
-      <c r="I3">
-        <v>0.8554766003388458</v>
-      </c>
-      <c r="J3">
-        <v>0.7978244494548442</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M3">
-        <v>9.866666666666666E-05</v>
-      </c>
-      <c r="N3">
-        <v>0.000296</v>
-      </c>
-      <c r="O3">
-        <v>0.001901891932701297</v>
-      </c>
-      <c r="P3">
-        <v>0.00285012758172452</v>
-      </c>
-      <c r="Q3">
-        <v>4.65571E-05</v>
-      </c>
-      <c r="R3">
-        <v>0.0002793426</v>
-      </c>
-      <c r="S3">
-        <v>0.001627024044799182</v>
-      </c>
-      <c r="T3">
-        <v>0.002273901468765431</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G4">
-        <v>0.079716</v>
-      </c>
-      <c r="H4">
-        <v>0.239148</v>
-      </c>
-      <c r="I4">
-        <v>0.1445233996611543</v>
-      </c>
-      <c r="J4">
-        <v>0.2021755505451557</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.5</v>
-      </c>
-      <c r="M4">
-        <v>0.0517795</v>
-      </c>
-      <c r="N4">
-        <v>0.103559</v>
-      </c>
-      <c r="O4">
-        <v>0.9980981080672988</v>
-      </c>
-      <c r="P4">
-        <v>0.9971498724182755</v>
-      </c>
-      <c r="Q4">
-        <v>0.004127654622</v>
-      </c>
-      <c r="R4">
-        <v>0.024765927732</v>
-      </c>
-      <c r="S4">
-        <v>0.1442485317732522</v>
-      </c>
-      <c r="T4">
-        <v>0.2015993244321966</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.079716</v>
-      </c>
-      <c r="H5">
-        <v>0.239148</v>
-      </c>
-      <c r="I5">
-        <v>0.1445233996611543</v>
-      </c>
-      <c r="J5">
-        <v>0.2021755505451557</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>9.866666666666666E-05</v>
-      </c>
-      <c r="N5">
-        <v>0.000296</v>
-      </c>
-      <c r="O5">
-        <v>0.001901891932701297</v>
-      </c>
-      <c r="P5">
-        <v>0.00285012758172452</v>
-      </c>
-      <c r="Q5">
-        <v>7.865311999999999E-06</v>
-      </c>
-      <c r="R5">
-        <v>7.0787808E-05</v>
-      </c>
-      <c r="S5">
-        <v>0.0002748678879021147</v>
-      </c>
-      <c r="T5">
-        <v>0.0005762261129590882</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
